--- a/Diverge_Newspaper Metadata for XML v2.xlsx
+++ b/Diverge_Newspaper Metadata for XML v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aef5b9b7bdc0cf4e/_DIVERGE materials/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{2CF3960C-48E8-4575-AAFF-B6C81ABE0E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E4D4517-8AA6-4C92-BF94-787454F2A4A3}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{2CF3960C-48E8-4575-AAFF-B6C81ABE0E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F19CB9-F049-4842-9129-7A1DF6CE1845}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8CE0B32D-7A3C-42D7-B7A5-41F602B23C16}"/>
+    <workbookView xWindow="22896" yWindow="-2160" windowWidth="30660" windowHeight="17088" xr2:uid="{8CE0B32D-7A3C-42D7-B7A5-41F602B23C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="414">
   <si>
     <t>DIVERGE Code</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>དར་རྩེ་མདོ་</t>
-  </si>
-  <si>
-    <t>GTS</t>
   </si>
   <si>
     <t>rgyal rtse gsar 'gyur</t>
@@ -1742,9 +1739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDA230D-C500-41B5-A293-9B4758A51FA1}">
   <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="28.5" x14ac:dyDescent="0.95"/>
@@ -1803,28 +1800,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1836,16 +1833,16 @@
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
@@ -1860,43 +1857,43 @@
         <v>10</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>1</v>
@@ -1905,16 +1902,16 @@
         <v>2</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AN1" s="6" t="s">
         <v>13</v>
@@ -1923,46 +1920,46 @@
         <v>14</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AU1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="BA1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BB1" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>15</v>
@@ -1979,7 +1976,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
@@ -1992,28 +1989,28 @@
         <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="3">
         <v>1150249846</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>25</v>
@@ -2022,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>26</v>
@@ -2033,10 +2030,10 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -2048,27 +2045,27 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO2" s="7"/>
       <c r="AP2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -2077,87 +2074,87 @@
         <v>26</v>
       </c>
       <c r="AV2" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
       <c r="AZ2" s="20"/>
       <c r="BA2" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BB2" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="BC2" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="BC2" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="BD2" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="R3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="4"/>
@@ -2174,7 +2171,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
@@ -2183,91 +2180,91 @@
       </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV3" s="3"/>
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
       <c r="BA3" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BB3" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD3" s="11"/>
     </row>
-    <row r="4" spans="1:56" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="3">
         <v>1150249846</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="U4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="3"/>
@@ -2286,23 +2283,23 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="7">
         <v>1953</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
@@ -2312,7 +2309,7 @@
         <v>26</v>
       </c>
       <c r="AV4" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AW4" s="3"/>
       <c r="AX4" s="3"/>
@@ -2320,82 +2317,82 @@
       <c r="AZ4" s="18"/>
       <c r="BA4"/>
       <c r="BB4" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BC4" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD4" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M5" s="3">
         <v>1151895776</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="U5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -2412,13 +2409,13 @@
         <v>16</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM5" s="3"/>
       <c r="AN5" s="7">
@@ -2426,115 +2423,115 @@
       </c>
       <c r="AO5" s="7"/>
       <c r="AP5" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV5" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BA5"/>
       <c r="BB5" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC5" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD5" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:56" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="R6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -2546,128 +2543,128 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO6" s="7">
         <v>1955</v>
       </c>
       <c r="AP6" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="AR6" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AY6" s="3"/>
       <c r="AZ6" s="18"/>
       <c r="BA6" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BB6" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BC6" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD6" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="Y7" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -2679,141 +2676,141 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV7" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AW7" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AX7" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AY7" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AZ7" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BA7" s="15"/>
       <c r="BB7" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BC7" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD7" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:56" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" s="3">
         <v>1332758657</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -2825,36 +2822,36 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AV8" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
@@ -2862,82 +2859,82 @@
       <c r="AZ8" s="20"/>
       <c r="BA8" s="14"/>
       <c r="BB8" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BC8" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD8" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="R9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="2"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -2950,29 +2947,29 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM9" s="3"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AV9" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
@@ -2980,74 +2977,74 @@
       <c r="AZ9" s="20"/>
       <c r="BA9" s="14"/>
       <c r="BB9" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BC9" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD9" s="11"/>
     </row>
     <row r="10" spans="1:56" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="R10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="3"/>
@@ -3063,13 +3060,13 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -3077,28 +3074,28 @@
         <v>1956</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AV10" s="3"/>
       <c r="AW10" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="AX10" s="22" t="s">
         <v>374</v>
-      </c>
-      <c r="AX10" s="22" t="s">
-        <v>375</v>
       </c>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="24"/>
@@ -3109,62 +3106,62 @@
     </row>
     <row r="11" spans="1:56" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="2"/>
@@ -3182,103 +3179,103 @@
       <c r="AH11" s="4"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM11" s="3"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AV11" s="3"/>
       <c r="AW11" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AX11" s="3"/>
       <c r="AY11" s="3"/>
       <c r="AZ11" s="23"/>
       <c r="BA11"/>
       <c r="BB11" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BC11" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD11" s="11"/>
     </row>
-    <row r="12" spans="1:56" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="Q12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="2"/>
@@ -3296,29 +3293,29 @@
       <c r="AH12" s="4"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM12" s="3"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AV12" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
@@ -3326,224 +3323,224 @@
       <c r="AZ12" s="13"/>
       <c r="BA12" s="15"/>
       <c r="BB12" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BC12" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD12" s="11"/>
     </row>
     <row r="13" spans="1:56" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="W13" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD13" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AQ13" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR13" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="AR13" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV13" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="14"/>
       <c r="BB13" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BC13" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD13" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="78.75" x14ac:dyDescent="0.95">
       <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="W14" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
@@ -3554,17 +3551,17 @@
         <v>1965</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV14" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
@@ -3572,90 +3569,90 @@
       <c r="AZ14" s="20"/>
       <c r="BA14" s="14"/>
       <c r="BB14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BC14" s="7"/>
       <c r="BD14" s="11"/>
     </row>
     <row r="15" spans="1:56" ht="63" x14ac:dyDescent="0.95">
       <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
@@ -3666,17 +3663,17 @@
         <v>1965</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV15" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
@@ -3684,94 +3681,94 @@
       <c r="AZ15" s="18"/>
       <c r="BA15" s="14"/>
       <c r="BB15" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BC15" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD15" s="11"/>
     </row>
     <row r="16" spans="1:56" ht="110.25" x14ac:dyDescent="0.95">
       <c r="A16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -3779,22 +3776,22 @@
         <v>1965</v>
       </c>
       <c r="AO16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV16" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
@@ -3802,188 +3799,188 @@
       <c r="AZ16" s="18"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BC16" s="7"/>
       <c r="BD16" s="11"/>
     </row>
     <row r="17" spans="1:56" ht="135" x14ac:dyDescent="0.95">
       <c r="A17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD17" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="AC17" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM17" s="3"/>
       <c r="AN17" s="7">
         <v>1926</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AT17" s="3"/>
       <c r="AU17" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AW17" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AX17" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY17" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="14"/>
       <c r="BB17" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BC17" s="7"/>
       <c r="BD17" s="11"/>
     </row>
     <row r="18" spans="1:56" ht="78.75" x14ac:dyDescent="0.95">
       <c r="A18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -3992,13 +3989,13 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC18" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD18" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -4007,182 +4004,182 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO18" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
       <c r="BA18" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD18" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:56" ht="89.25" x14ac:dyDescent="0.95">
       <c r="A19" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>310</v>
-      </c>
       <c r="H19" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="V19" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="W19" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="AK19" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP19" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU19" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="AK19" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL19" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN19" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO19" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP19" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AU19" s="9" t="s">
+      <c r="BA19" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="BA19" s="16" t="s">
-        <v>314</v>
-      </c>
       <c r="BD19" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:56" ht="136.5" x14ac:dyDescent="0.95">
       <c r="A20" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="W20" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="V20" s="10" t="s">
+      <c r="AK20" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL20" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="W20" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AK20" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="AN20" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO20" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AP20" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU20" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BA20" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BD20" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.95">

--- a/Diverge_Newspaper Metadata for XML v2.xlsx
+++ b/Diverge_Newspaper Metadata for XML v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aef5b9b7bdc0cf4e/_DIVERGE materials/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{2CF3960C-48E8-4575-AAFF-B6C81ABE0E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F19CB9-F049-4842-9129-7A1DF6CE1845}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{2CF3960C-48E8-4575-AAFF-B6C81ABE0E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{783B210A-66C4-458A-8CAE-8132B4C1B635}"/>
   <bookViews>
-    <workbookView xWindow="22896" yWindow="-2160" windowWidth="30660" windowHeight="17088" xr2:uid="{8CE0B32D-7A3C-42D7-B7A5-41F602B23C16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8CE0B32D-7A3C-42D7-B7A5-41F602B23C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,9 +315,6 @@
     <t>Tibet Daily</t>
   </si>
   <si>
-    <t>XNX</t>
-  </si>
-  <si>
     <t>lho nub mi rigs slob grwa chen mo</t>
   </si>
   <si>
@@ -1276,6 +1273,9 @@
   </si>
   <si>
     <t>ཀན་ལྷོ་</t>
+  </si>
+  <si>
+    <t>XMX</t>
   </si>
 </sst>
 </file>
@@ -1739,9 +1739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDA230D-C500-41B5-A293-9B4758A51FA1}">
   <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="28.5" x14ac:dyDescent="0.95"/>
@@ -1800,28 +1800,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1833,16 +1833,16 @@
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
@@ -1857,43 +1857,43 @@
         <v>10</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>1</v>
@@ -1902,16 +1902,16 @@
         <v>2</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="AN1" s="6" t="s">
         <v>13</v>
@@ -1920,46 +1920,46 @@
         <v>14</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="AU1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="BA1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BB1" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>15</v>
@@ -1976,7 +1976,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
@@ -1989,10 +1989,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>21</v>
@@ -2004,13 +2004,13 @@
         <v>1150249846</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>25</v>
@@ -2019,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>26</v>
@@ -2030,10 +2030,10 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -2045,27 +2045,27 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO2" s="7"/>
       <c r="AP2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -2074,28 +2074,28 @@
         <v>26</v>
       </c>
       <c r="AV2" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
       <c r="AZ2" s="20"/>
       <c r="BA2" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BB2" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="BC2" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="BC2" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="BD2" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -2104,10 +2104,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
@@ -2120,25 +2120,25 @@
         <v>34</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>35</v>
@@ -2147,10 +2147,10 @@
         <v>34</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="2" t="s">
@@ -2171,7 +2171,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
@@ -2194,13 +2194,13 @@
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
       <c r="BA3" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BB3" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD3" s="11"/>
     </row>
@@ -2228,10 +2228,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>43</v>
@@ -2243,25 +2243,25 @@
         <v>1150249846</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>41</v>
@@ -2283,23 +2283,23 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="7">
         <v>1953</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
@@ -2309,7 +2309,7 @@
         <v>26</v>
       </c>
       <c r="AV4" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AW4" s="3"/>
       <c r="AX4" s="3"/>
@@ -2317,13 +2317,13 @@
       <c r="AZ4" s="18"/>
       <c r="BA4"/>
       <c r="BB4" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC4" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD4" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="94.5" x14ac:dyDescent="0.25">
@@ -2331,10 +2331,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>47</v>
@@ -2347,31 +2347,31 @@
         <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M5" s="3">
         <v>1151895776</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>51</v>
@@ -2380,7 +2380,7 @@
         <v>50</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>52</v>
@@ -2392,7 +2392,7 @@
         <v>48</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -2409,13 +2409,13 @@
         <v>16</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM5" s="3"/>
       <c r="AN5" s="7">
@@ -2423,37 +2423,37 @@
       </c>
       <c r="AO5" s="7"/>
       <c r="AP5" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV5" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BA5"/>
       <c r="BB5" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BC5" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD5" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:56" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -2467,10 +2467,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -2483,7 +2483,7 @@
         <v>61</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>57</v>
@@ -2492,16 +2492,16 @@
         <v>56</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>62</v>
@@ -2510,7 +2510,7 @@
         <v>61</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>56</v>
@@ -2522,13 +2522,13 @@
         <v>58</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>59</v>
@@ -2543,27 +2543,27 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO6" s="7">
         <v>1955</v>
       </c>
       <c r="AP6" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>378</v>
-      </c>
       <c r="AR6" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
@@ -2571,25 +2571,25 @@
         <v>32</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AY6" s="3"/>
       <c r="AZ6" s="18"/>
       <c r="BA6" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BB6" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BC6" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD6" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:56" ht="78.75" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>66</v>
@@ -2619,7 +2619,7 @@
         <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
@@ -2628,16 +2628,16 @@
         <v>67</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>71</v>
@@ -2646,25 +2646,25 @@
         <v>70</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="U7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="Y7" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -2676,66 +2676,66 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AO7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU7" s="4" t="s">
         <v>68</v>
       </c>
       <c r="AV7" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AW7" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AX7" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AY7" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AZ7" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BA7" s="15"/>
       <c r="BB7" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BC7" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD7" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:56" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,7 +2749,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>76</v>
@@ -2765,52 +2765,52 @@
         <v>81</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M8" s="3">
         <v>1332758657</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>78</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -2822,36 +2822,36 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV8" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
@@ -2859,13 +2859,13 @@
       <c r="AZ8" s="20"/>
       <c r="BA8" s="14"/>
       <c r="BB8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BC8" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD8" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="94.5" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>84</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>86</v>
@@ -2895,7 +2895,7 @@
         <v>61</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>57</v>
@@ -2904,16 +2904,16 @@
         <v>56</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>62</v>
@@ -2922,7 +2922,7 @@
         <v>61</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>56</v>
@@ -2931,10 +2931,10 @@
       <c r="V9" s="2"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -2947,19 +2947,19 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM9" s="3"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="AV9" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
@@ -2977,10 +2977,10 @@
       <c r="AZ9" s="20"/>
       <c r="BA9" s="14"/>
       <c r="BB9" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BC9" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD9" s="11"/>
     </row>
@@ -2995,7 +2995,7 @@
         <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>86</v>
@@ -3011,7 +3011,7 @@
         <v>61</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>57</v>
@@ -3020,16 +3020,16 @@
         <v>56</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>62</v>
@@ -3038,7 +3038,7 @@
         <v>61</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>56</v>
@@ -3060,13 +3060,13 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -3077,13 +3077,13 @@
         <v>72</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
@@ -3092,10 +3092,10 @@
       </c>
       <c r="AV10" s="3"/>
       <c r="AW10" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="AX10" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="AX10" s="22" t="s">
-        <v>374</v>
       </c>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="24"/>
@@ -3106,62 +3106,62 @@
     </row>
     <row r="11" spans="1:56" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="2"/>
@@ -3179,103 +3179,103 @@
       <c r="AH11" s="4"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM11" s="3"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV11" s="3"/>
       <c r="AW11" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AX11" s="3"/>
       <c r="AY11" s="3"/>
       <c r="AZ11" s="23"/>
       <c r="BA11"/>
       <c r="BB11" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BC11" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD11" s="11"/>
     </row>
     <row r="12" spans="1:56" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="Q12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="2"/>
@@ -3293,29 +3293,29 @@
       <c r="AH12" s="4"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM12" s="3"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AV12" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
@@ -3323,224 +3323,224 @@
       <c r="AZ12" s="13"/>
       <c r="BA12" s="15"/>
       <c r="BB12" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BC12" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD12" s="11"/>
     </row>
     <row r="13" spans="1:56" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="W13" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD13" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AQ13" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR13" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="AR13" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AV13" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="14"/>
       <c r="BB13" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BC13" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD13" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="78.75" x14ac:dyDescent="0.95">
       <c r="A14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="W14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
@@ -3551,17 +3551,17 @@
         <v>1965</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AV14" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
@@ -3569,90 +3569,90 @@
       <c r="AZ14" s="20"/>
       <c r="BA14" s="14"/>
       <c r="BB14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BC14" s="7"/>
       <c r="BD14" s="11"/>
     </row>
     <row r="15" spans="1:56" ht="63" x14ac:dyDescent="0.95">
       <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
@@ -3663,17 +3663,17 @@
         <v>1965</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AV15" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
@@ -3681,94 +3681,94 @@
       <c r="AZ15" s="18"/>
       <c r="BA15" s="14"/>
       <c r="BB15" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BC15" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD15" s="11"/>
     </row>
     <row r="16" spans="1:56" ht="110.25" x14ac:dyDescent="0.95">
       <c r="A16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -3779,19 +3779,19 @@
         <v>72</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AV16" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
@@ -3799,188 +3799,188 @@
       <c r="AZ16" s="18"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BC16" s="7"/>
       <c r="BD16" s="11"/>
     </row>
     <row r="17" spans="1:56" ht="135" x14ac:dyDescent="0.95">
       <c r="A17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD17" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="AC17" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM17" s="3"/>
       <c r="AN17" s="7">
         <v>1926</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AT17" s="3"/>
       <c r="AU17" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AW17" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AX17" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AY17" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="14"/>
       <c r="BB17" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BC17" s="7"/>
       <c r="BD17" s="11"/>
     </row>
     <row r="18" spans="1:56" ht="78.75" x14ac:dyDescent="0.95">
       <c r="A18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -3989,13 +3989,13 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC18" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD18" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -4004,182 +4004,182 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO18" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
       <c r="BA18" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BD18" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:56" ht="89.25" x14ac:dyDescent="0.95">
       <c r="A19" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>309</v>
-      </c>
       <c r="H19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="V19" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="W19" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="AK19" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP19" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU19" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AK19" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL19" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN19" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO19" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP19" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="AU19" s="9" t="s">
+      <c r="BA19" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="BA19" s="16" t="s">
-        <v>313</v>
-      </c>
       <c r="BD19" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:56" ht="136.5" x14ac:dyDescent="0.95">
       <c r="A20" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="W20" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="V20" s="10" t="s">
+      <c r="AK20" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL20" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="W20" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK20" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="AN20" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO20" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP20" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AU20" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BA20" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BD20" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.95">
